--- a/input/dictionary/BDS DAK_core data dictionary.xlsx
+++ b/input/dictionary/BDS DAK_core data dictionary.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg.sharepoint.com/sites/Birthdefectssurveillanceworkinggroup/Shared Documents/DAK final version/DAK executive clearance v.1/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659753D9-0F5C-4BF7-9892-EDA5D6898523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{659753D9-0F5C-4BF7-9892-EDA5D6898523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51BDFB66-0AE0-40F3-B16A-F725BF30C8CD}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" tabRatio="609" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16836" yWindow="2040" windowWidth="17280" windowHeight="12204" tabRatio="609" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVER" sheetId="20" r:id="rId1"/>
@@ -6486,11 +6481,6 @@
     <t>BDS.C9. Approve the generated report</t>
   </si>
   <si>
-    <t xml:space="preserve">https://smart.who.int/dak-bds/v0.9.9/BDS DAK_core data dictionary.xlsx 
-© World Health Organization 2025. Some rights reserved. This work is available under the
-</t>
-  </si>
-  <si>
     <t>ATC is a classification for medicinal substances not diagnoses or administrative data</t>
   </si>
   <si>
@@ -6521,13 +6511,18 @@
 •  The DAKs adhere to the "collect once, use many times" principle, and therefore data elements are listed only under the activity and business process they are first collected in. Only the new data elements that need to be collected in subsequent activities or business processes are listed. This approach assumes health workers have access to modify data elements present in prior business processes, eliminating the need to repeat data elements. In instances where data elements can be collected in different, disconnected business processes, making it difficult to determine the initial collection point, such data elements are included in the "BDS.Common" tab.</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">https://smart.who.int/dak-bds/v1.0.0/BDS DAK_core data dictionary.xlsx 
+© World Health Organization 2025. Some rights reserved. This work is available under the
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="46" x14ac:knownFonts="1">
     <font>
@@ -7249,7 +7244,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -7777,12 +7772,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -7845,6 +7834,12 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="66">
@@ -12309,215 +12304,215 @@
   <dimension ref="B1:J23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:J9"/>
+      <selection activeCell="B19" sqref="B19:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="6" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" style="6" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="6"/>
-    <col min="6" max="6" width="23.85546875" style="6" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="6"/>
-    <col min="9" max="9" width="3.42578125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="1.5703125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="2.5703125" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="6"/>
+    <col min="2" max="2" width="37.88671875" style="6" customWidth="1"/>
+    <col min="3" max="5" width="9.109375" style="6"/>
+    <col min="6" max="6" width="23.88671875" style="6" customWidth="1"/>
+    <col min="7" max="8" width="9.109375" style="6"/>
+    <col min="9" max="9" width="3.44140625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="1.5546875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="2.5546875" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-    </row>
-    <row r="2" spans="2:10" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-    </row>
-    <row r="3" spans="2:10" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-    </row>
-    <row r="4" spans="2:10" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-    </row>
-    <row r="5" spans="2:10" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-    </row>
-    <row r="6" spans="2:10" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B6" s="131"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-    </row>
-    <row r="7" spans="2:10" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="131"/>
-    </row>
-    <row r="8" spans="2:10" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="131"/>
-    </row>
-    <row r="9" spans="2:10" s="21" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="133" t="s">
+    <row r="1" spans="2:10" s="21" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+    </row>
+    <row r="2" spans="2:10" s="21" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+    </row>
+    <row r="3" spans="2:10" s="21" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+    </row>
+    <row r="4" spans="2:10" s="21" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+    </row>
+    <row r="5" spans="2:10" s="21" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+    </row>
+    <row r="6" spans="2:10" s="21" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+    </row>
+    <row r="7" spans="2:10" s="21" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+    </row>
+    <row r="8" spans="2:10" s="21" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="129"/>
+    </row>
+    <row r="9" spans="2:10" s="21" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="133"/>
-    </row>
-    <row r="10" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="131"/>
+    </row>
+    <row r="10" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="132"/>
-    </row>
-    <row r="12" spans="2:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="130"/>
+    </row>
+    <row r="12" spans="2:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="130" t="s">
+      <c r="C12" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-    </row>
-    <row r="13" spans="2:10" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="128"/>
+    </row>
+    <row r="13" spans="2:10" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="134" t="s">
+      <c r="C13" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="136"/>
-    </row>
-    <row r="14" spans="2:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="134"/>
+    </row>
+    <row r="14" spans="2:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="134" t="s">
+      <c r="C14" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="136"/>
-    </row>
-    <row r="15" spans="2:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="134"/>
+    </row>
+    <row r="15" spans="2:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="134" t="s">
+      <c r="C15" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="135"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="135"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="136"/>
-    </row>
-    <row r="16" spans="2:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="134"/>
+    </row>
+    <row r="16" spans="2:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="134" t="s">
+      <c r="C16" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="135"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="135"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="136"/>
-    </row>
-    <row r="17" spans="2:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="134"/>
+    </row>
+    <row r="17" spans="2:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="98" t="s">
         <v>13</v>
       </c>
@@ -12532,15 +12527,15 @@
       <c r="I17" s="126"/>
       <c r="J17" s="127"/>
     </row>
-    <row r="18" spans="2:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="128" t="s">
-        <v>1870</v>
-      </c>
-      <c r="C19" s="129"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="129"/>
+    <row r="18" spans="2:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="149" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C19" s="150"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
       <c r="G19" s="27" t="s">
         <v>15</v>
       </c>
@@ -12548,7 +12543,7 @@
       <c r="I19" s="22"/>
       <c r="J19" s="23"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
@@ -12559,7 +12554,7 @@
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B21" s="39"/>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
@@ -12570,7 +12565,7 @@
       <c r="I21" s="24"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B22" s="40"/>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
@@ -12581,7 +12576,7 @@
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B23" s="38"/>
     </row>
   </sheetData>
@@ -12617,28 +12612,28 @@
       <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="46.5703125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="91.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="46.5546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="91.88671875" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="243.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="145" t="s">
-        <v>1873</v>
-      </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
+    <row r="2" spans="2:6" ht="243.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="143" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
       <c r="F2" s="35"/>
     </row>
-    <row r="3" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
         <v>16</v>
       </c>
@@ -12649,7 +12644,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="165.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="144.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="14" t="s">
         <v>19</v>
       </c>
@@ -12658,7 +12653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="228.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" ht="228.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="25" t="s">
         <v>21</v>
       </c>
@@ -12667,7 +12662,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="105" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" ht="72" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>23</v>
       </c>
@@ -12676,7 +12671,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="15" t="s">
         <v>25</v>
       </c>
@@ -12685,8 +12680,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="B9" s="148" t="s">
+    <row r="9" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B9" s="146" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="17"/>
@@ -12694,8 +12689,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="B10" s="149"/>
+    <row r="10" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B10" s="147"/>
       <c r="C10" s="18" t="s">
         <v>29</v>
       </c>
@@ -12703,8 +12698,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="B11" s="149"/>
+    <row r="11" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B11" s="147"/>
       <c r="C11" s="18" t="s">
         <v>31</v>
       </c>
@@ -12712,8 +12707,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="B12" s="149"/>
+    <row r="12" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B12" s="147"/>
       <c r="C12" s="18" t="s">
         <v>33</v>
       </c>
@@ -12721,8 +12716,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="B13" s="149"/>
+    <row r="13" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B13" s="147"/>
       <c r="C13" s="18" t="s">
         <v>35</v>
       </c>
@@ -12730,8 +12725,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="B14" s="149"/>
+    <row r="14" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B14" s="147"/>
       <c r="C14" s="18" t="s">
         <v>37</v>
       </c>
@@ -12739,8 +12734,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="B15" s="149"/>
+    <row r="15" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B15" s="147"/>
       <c r="C15" s="18" t="s">
         <v>39</v>
       </c>
@@ -12748,8 +12743,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="90" x14ac:dyDescent="0.2">
-      <c r="B16" s="149"/>
+    <row r="16" spans="2:6" ht="72" x14ac:dyDescent="0.25">
+      <c r="B16" s="147"/>
       <c r="C16" s="26" t="s">
         <v>41</v>
       </c>
@@ -12757,8 +12752,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="B17" s="149"/>
+    <row r="17" spans="2:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B17" s="147"/>
       <c r="C17" s="18" t="s">
         <v>43</v>
       </c>
@@ -12766,8 +12761,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B18" s="149"/>
+    <row r="18" spans="2:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B18" s="147"/>
       <c r="C18" s="18" t="s">
         <v>45</v>
       </c>
@@ -12775,8 +12770,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="B19" s="149"/>
+    <row r="19" spans="2:4" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="B19" s="147"/>
       <c r="C19" s="18" t="s">
         <v>47</v>
       </c>
@@ -12784,8 +12779,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="75" x14ac:dyDescent="0.2">
-      <c r="B20" s="149"/>
+    <row r="20" spans="2:4" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="B20" s="147"/>
       <c r="C20" s="26" t="s">
         <v>49</v>
       </c>
@@ -12793,8 +12788,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="B21" s="149"/>
+    <row r="21" spans="2:4" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="B21" s="147"/>
       <c r="C21" s="18" t="s">
         <v>51</v>
       </c>
@@ -12802,14 +12797,14 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="150"/>
-      <c r="C22" s="146" t="s">
+    <row r="22" spans="2:4" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="148"/>
+      <c r="C22" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="147"/>
-    </row>
-    <row r="23" spans="2:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="145"/>
+    </row>
+    <row r="23" spans="2:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="17" t="s">
         <v>54</v>
       </c>
@@ -12818,8 +12813,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="B24" s="142" t="s">
+    <row r="24" spans="2:4" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="B24" s="140" t="s">
         <v>56</v>
       </c>
       <c r="C24" s="17"/>
@@ -12827,8 +12822,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="105" x14ac:dyDescent="0.2">
-      <c r="B25" s="143"/>
+    <row r="25" spans="2:4" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="B25" s="141"/>
       <c r="C25" s="18" t="s">
         <v>58</v>
       </c>
@@ -12836,8 +12831,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="B26" s="143"/>
+    <row r="26" spans="2:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B26" s="141"/>
       <c r="C26" s="18" t="s">
         <v>60</v>
       </c>
@@ -12845,8 +12840,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="144"/>
+    <row r="27" spans="2:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="142"/>
       <c r="C27" s="14" t="s">
         <v>62</v>
       </c>
@@ -12854,7 +12849,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="92.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4" ht="88.2" x14ac:dyDescent="0.25">
       <c r="B28" s="15" t="s">
         <v>64</v>
       </c>
@@ -12863,7 +12858,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" ht="101.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="17" t="s">
         <v>66</v>
       </c>
@@ -12872,8 +12867,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B30" s="139" t="s">
+    <row r="30" spans="2:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B30" s="137" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="17"/>
@@ -12881,8 +12876,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B31" s="140"/>
+    <row r="31" spans="2:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B31" s="138"/>
       <c r="C31" s="18" t="s">
         <v>70</v>
       </c>
@@ -12890,8 +12885,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B32" s="140"/>
+    <row r="32" spans="2:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B32" s="138"/>
       <c r="C32" s="18" t="s">
         <v>72</v>
       </c>
@@ -12899,8 +12894,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B33" s="140"/>
+    <row r="33" spans="2:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B33" s="138"/>
       <c r="C33" s="18" t="s">
         <v>74</v>
       </c>
@@ -12908,14 +12903,14 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="141"/>
+    <row r="34" spans="2:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="139"/>
       <c r="C34" s="14"/>
       <c r="D34" s="46" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="15" t="s">
         <v>77</v>
       </c>
@@ -12924,7 +12919,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="15" t="s">
         <v>79</v>
       </c>
@@ -12933,7 +12928,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="15" t="s">
         <v>81</v>
       </c>
@@ -12942,7 +12937,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="15" t="s">
         <v>83</v>
       </c>
@@ -12951,7 +12946,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="15" t="s">
         <v>85</v>
       </c>
@@ -12960,7 +12955,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="99" t="s">
         <v>87</v>
       </c>
@@ -12969,7 +12964,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="63.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" ht="63.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="15" t="s">
         <v>89</v>
       </c>
@@ -12978,7 +12973,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="48.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" ht="48.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="17" t="s">
         <v>91</v>
       </c>
@@ -12987,7 +12982,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="102" t="s">
         <v>93</v>
       </c>
@@ -12996,7 +12991,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="102" t="s">
         <v>95</v>
       </c>
@@ -13005,7 +13000,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="103" t="s">
         <v>97</v>
       </c>
@@ -13014,8 +13009,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="B46" s="137" t="s">
+    <row r="46" spans="2:4" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="B46" s="135" t="s">
         <v>99</v>
       </c>
       <c r="C46" s="29"/>
@@ -13023,8 +13018,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B47" s="138"/>
+    <row r="47" spans="2:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B47" s="136"/>
       <c r="C47" s="30" t="s">
         <v>101</v>
       </c>
@@ -13032,8 +13027,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B48" s="138"/>
+    <row r="48" spans="2:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B48" s="136"/>
       <c r="C48" s="30" t="s">
         <v>103</v>
       </c>
@@ -13041,8 +13036,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="B49" s="138"/>
+    <row r="49" spans="2:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B49" s="136"/>
       <c r="C49" s="30" t="s">
         <v>105</v>
       </c>
@@ -13050,8 +13045,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="138"/>
+    <row r="50" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="136"/>
       <c r="C50" s="30" t="s">
         <v>107</v>
       </c>
@@ -13059,7 +13054,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="104" t="s">
         <v>109</v>
       </c>
@@ -13097,40 +13092,40 @@
       <selection pane="bottomRight" activeCell="AQ214" sqref="AQ214"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="51" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="69" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" style="51" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" style="51" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="51" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="51" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" style="51" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" style="51" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="69" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" style="51" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" style="51" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="51" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" style="51" customWidth="1"/>
+    <col min="7" max="7" width="25.5546875" style="51" customWidth="1"/>
     <col min="8" max="8" width="18" style="51" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" style="51" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="51" customWidth="1"/>
+    <col min="9" max="9" width="26.88671875" style="51" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" style="51" customWidth="1"/>
     <col min="11" max="11" width="34" style="51" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="51" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" style="51" customWidth="1"/>
-    <col min="14" max="14" width="23.42578125" style="51" customWidth="1"/>
-    <col min="15" max="15" width="21.140625" style="51" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="51" customWidth="1"/>
-    <col min="17" max="17" width="22.140625" style="51" customWidth="1"/>
-    <col min="18" max="24" width="20.85546875" style="53" customWidth="1"/>
-    <col min="25" max="26" width="20.85546875" style="54" customWidth="1"/>
-    <col min="27" max="36" width="20.85546875" style="53" customWidth="1"/>
-    <col min="37" max="37" width="13.140625" style="53" customWidth="1"/>
-    <col min="38" max="38" width="15.140625" style="53" customWidth="1"/>
-    <col min="39" max="39" width="12.5703125" style="53" customWidth="1"/>
-    <col min="40" max="40" width="14.28515625" style="53" customWidth="1"/>
-    <col min="41" max="44" width="20.85546875" style="55" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" style="51" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" style="51" customWidth="1"/>
+    <col min="14" max="14" width="23.44140625" style="51" customWidth="1"/>
+    <col min="15" max="15" width="21.109375" style="51" customWidth="1"/>
+    <col min="16" max="16" width="16.5546875" style="51" customWidth="1"/>
+    <col min="17" max="17" width="22.109375" style="51" customWidth="1"/>
+    <col min="18" max="24" width="20.88671875" style="53" customWidth="1"/>
+    <col min="25" max="26" width="20.88671875" style="54" customWidth="1"/>
+    <col min="27" max="36" width="20.88671875" style="53" customWidth="1"/>
+    <col min="37" max="37" width="13.109375" style="53" customWidth="1"/>
+    <col min="38" max="38" width="15.109375" style="53" customWidth="1"/>
+    <col min="39" max="39" width="12.5546875" style="53" customWidth="1"/>
+    <col min="40" max="40" width="14.33203125" style="53" customWidth="1"/>
+    <col min="41" max="44" width="20.88671875" style="55" customWidth="1"/>
     <col min="45" max="45" width="25" style="54" customWidth="1"/>
-    <col min="46" max="46" width="20.85546875" style="51" customWidth="1"/>
-    <col min="47" max="48" width="20.85546875" style="53" customWidth="1"/>
-    <col min="49" max="16384" width="9.140625" style="53"/>
+    <col min="46" max="46" width="20.88671875" style="51" customWidth="1"/>
+    <col min="47" max="48" width="20.88671875" style="53" customWidth="1"/>
+    <col min="49" max="16384" width="9.109375" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48" ht="69" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>19</v>
       </c>
@@ -13276,7 +13271,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:48" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:48" ht="138" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
         <v>1865</v>
       </c>
@@ -13340,7 +13335,7 @@
       <c r="AU2" s="78"/>
       <c r="AV2" s="78"/>
     </row>
-    <row r="3" spans="1:48" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:48" ht="138" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>1865</v>
       </c>
@@ -13399,7 +13394,7 @@
       <c r="AP3" s="85"/>
       <c r="AQ3" s="85"/>
       <c r="AR3" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS3" s="84" t="s">
         <v>159</v>
@@ -13411,7 +13406,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:48" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:48" ht="138" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>1865</v>
       </c>
@@ -13468,7 +13463,7 @@
       <c r="AP4" s="85"/>
       <c r="AQ4" s="85"/>
       <c r="AR4" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS4" s="84" t="s">
         <v>164</v>
@@ -13480,7 +13475,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:48" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:48" ht="138" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>1865</v>
       </c>
@@ -13537,7 +13532,7 @@
       <c r="AP5" s="85"/>
       <c r="AQ5" s="85"/>
       <c r="AR5" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS5" s="84" t="s">
         <v>169</v>
@@ -13549,7 +13544,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:48" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:48" ht="138" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>1865</v>
       </c>
@@ -13606,7 +13601,7 @@
       <c r="AP6" s="85"/>
       <c r="AQ6" s="85"/>
       <c r="AR6" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS6" s="84" t="s">
         <v>174</v>
@@ -13618,7 +13613,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
         <v>1862</v>
       </c>
@@ -13672,7 +13667,7 @@
         <v>158</v>
       </c>
       <c r="AR7" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS7" s="54">
         <v>162408000</v>
@@ -13684,7 +13679,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:48" ht="229.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:48" ht="248.4" x14ac:dyDescent="0.25">
       <c r="A8" s="74" t="s">
         <v>1864</v>
       </c>
@@ -13748,7 +13743,7 @@
       <c r="AU8" s="78"/>
       <c r="AV8" s="78"/>
     </row>
-    <row r="9" spans="1:48" ht="229.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:48" ht="248.4" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>1864</v>
       </c>
@@ -13805,7 +13800,7 @@
         <v>158</v>
       </c>
       <c r="AR9" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS9" s="54">
         <v>14657009</v>
@@ -13817,7 +13812,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:48" ht="229.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:48" ht="248.4" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
         <v>1864</v>
       </c>
@@ -13874,7 +13869,7 @@
         <v>158</v>
       </c>
       <c r="AR10" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS10" s="54">
         <v>60022001</v>
@@ -13886,7 +13881,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:48" ht="229.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:48" ht="248.4" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
         <v>1864</v>
       </c>
@@ -13943,7 +13938,7 @@
         <v>158</v>
       </c>
       <c r="AR11" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS11" s="54">
         <v>15874002</v>
@@ -13955,7 +13950,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:48" ht="229.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:48" ht="248.4" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
         <v>1864</v>
       </c>
@@ -14012,7 +14007,7 @@
         <v>158</v>
       </c>
       <c r="AR12" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS12" s="54">
         <v>733495001</v>
@@ -14024,7 +14019,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:48" ht="408" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:48" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A13" s="74" t="s">
         <v>1863</v>
       </c>
@@ -14092,7 +14087,7 @@
       <c r="AU13" s="78"/>
       <c r="AV13" s="78"/>
     </row>
-    <row r="14" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
         <v>1863</v>
       </c>
@@ -14143,7 +14138,7 @@
         <v>158</v>
       </c>
       <c r="AR14" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS14" s="54">
         <v>46651001</v>
@@ -14155,7 +14150,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
         <v>1863</v>
       </c>
@@ -14203,7 +14198,7 @@
         <v>158</v>
       </c>
       <c r="AR15" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS15" s="54">
         <v>255204007</v>
@@ -14215,7 +14210,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
         <v>1863</v>
       </c>
@@ -14263,7 +14258,7 @@
         <v>158</v>
       </c>
       <c r="AR16" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS16" s="54">
         <v>64572001</v>
@@ -14278,7 +14273,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:48" ht="229.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:48" ht="248.4" x14ac:dyDescent="0.25">
       <c r="A17" s="74" t="s">
         <v>1863</v>
       </c>
@@ -14346,7 +14341,7 @@
       <c r="AU17" s="78"/>
       <c r="AV17" s="78"/>
     </row>
-    <row r="18" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>1863</v>
       </c>
@@ -14403,7 +14398,7 @@
         <v>158</v>
       </c>
       <c r="AR18" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS18" s="54">
         <v>7771000</v>
@@ -14415,7 +14410,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>1863</v>
       </c>
@@ -14472,7 +14467,7 @@
         <v>158</v>
       </c>
       <c r="AR19" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS19" s="54">
         <v>24028007</v>
@@ -14484,7 +14479,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
         <v>1863</v>
       </c>
@@ -14541,7 +14536,7 @@
         <v>158</v>
       </c>
       <c r="AR20" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS20" s="54">
         <v>51440002</v>
@@ -14553,7 +14548,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A21" s="79" t="s">
         <v>1862</v>
       </c>
@@ -14621,7 +14616,7 @@
       <c r="AU21" s="64"/>
       <c r="AV21" s="64"/>
     </row>
-    <row r="22" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
         <v>1862</v>
       </c>
@@ -14687,14 +14682,14 @@
         <v>158</v>
       </c>
       <c r="AR22" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS22" s="54" t="s">
         <v>267</v>
       </c>
       <c r="AT22" s="53"/>
     </row>
-    <row r="23" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>1862</v>
       </c>
@@ -14765,7 +14760,7 @@
         <v>158</v>
       </c>
       <c r="AR23" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS23" s="54">
         <v>89369001</v>
@@ -14777,7 +14772,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>1862</v>
       </c>
@@ -14848,7 +14843,7 @@
         <v>158</v>
       </c>
       <c r="AR24" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS24" s="54">
         <v>32219008</v>
@@ -14860,7 +14855,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>1862</v>
       </c>
@@ -14931,7 +14926,7 @@
         <v>158</v>
       </c>
       <c r="AR25" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS25" s="54">
         <v>2438005</v>
@@ -14943,7 +14938,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:48" s="107" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:48" s="107" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
         <v>1862</v>
       </c>
@@ -15018,7 +15013,7 @@
       <c r="AP26" s="55"/>
       <c r="AQ26" s="55"/>
       <c r="AR26" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS26" s="54" t="s">
         <v>267</v>
@@ -15027,7 +15022,7 @@
       <c r="AU26" s="53"/>
       <c r="AV26" s="53"/>
     </row>
-    <row r="27" spans="1:48" s="107" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:48" s="107" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>1862</v>
       </c>
@@ -15118,7 +15113,7 @@
       <c r="AP27" s="85"/>
       <c r="AQ27" s="85"/>
       <c r="AR27" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS27" s="54">
         <v>253103006</v>
@@ -15130,7 +15125,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
         <v>1862</v>
       </c>
@@ -15204,7 +15199,7 @@
         <v>158</v>
       </c>
       <c r="AR28" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS28" s="54">
         <v>253106003</v>
@@ -15216,7 +15211,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
         <v>1862</v>
       </c>
@@ -15290,7 +15285,7 @@
         <v>158</v>
       </c>
       <c r="AR29" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS29" s="54">
         <v>42376006</v>
@@ -15302,7 +15297,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>1862</v>
       </c>
@@ -15379,7 +15374,7 @@
         <v>158</v>
       </c>
       <c r="AR30" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS30" s="54">
         <v>253109005</v>
@@ -15391,7 +15386,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>1862</v>
       </c>
@@ -15468,7 +15463,7 @@
         <v>158</v>
       </c>
       <c r="AR31" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS31" s="54">
         <v>15671007</v>
@@ -15480,7 +15475,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
         <v>1862</v>
       </c>
@@ -15557,7 +15552,7 @@
         <v>158</v>
       </c>
       <c r="AR32" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS32" s="54">
         <v>65455002</v>
@@ -15569,7 +15564,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>1862</v>
       </c>
@@ -15646,7 +15641,7 @@
         <v>158</v>
       </c>
       <c r="AR33" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS33" s="54">
         <v>253107007</v>
@@ -15658,7 +15653,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A34" s="53" t="s">
         <v>1862</v>
       </c>
@@ -15739,7 +15734,7 @@
       <c r="AP34" s="53"/>
       <c r="AQ34" s="53"/>
       <c r="AR34" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS34" s="54">
         <v>55999004</v>
@@ -15751,7 +15746,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
         <v>1862</v>
       </c>
@@ -15811,13 +15806,13 @@
         <v>158</v>
       </c>
       <c r="AR35" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS35" s="54" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="36" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
         <v>1862</v>
       </c>
@@ -15891,7 +15886,7 @@
         <v>158</v>
       </c>
       <c r="AR36" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS36" s="54">
         <v>203934001</v>
@@ -15903,7 +15898,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A37" s="53" t="s">
         <v>1862</v>
       </c>
@@ -15977,7 +15972,7 @@
         <v>158</v>
       </c>
       <c r="AR37" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS37" s="54">
         <v>203935000</v>
@@ -15989,7 +15984,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
         <v>1862</v>
       </c>
@@ -16063,7 +16058,7 @@
         <v>158</v>
       </c>
       <c r="AR38" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS38" s="54">
         <v>203936004</v>
@@ -16075,7 +16070,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>1862</v>
       </c>
@@ -16149,7 +16144,7 @@
         <v>158</v>
       </c>
       <c r="AR39" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS39" s="54">
         <v>203951008</v>
@@ -16164,7 +16159,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="40" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A40" s="53" t="s">
         <v>1862</v>
       </c>
@@ -16235,7 +16230,7 @@
         <v>158</v>
       </c>
       <c r="AR40" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS40" s="54">
         <v>53318002</v>
@@ -16247,7 +16242,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A41" s="53" t="s">
         <v>1862</v>
       </c>
@@ -16321,7 +16316,7 @@
         <v>158</v>
       </c>
       <c r="AR41" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS41" s="54">
         <v>204010001</v>
@@ -16336,7 +16331,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="42" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A42" s="53" t="s">
         <v>1862</v>
       </c>
@@ -16410,7 +16405,7 @@
         <v>158</v>
       </c>
       <c r="AR42" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS42" s="54">
         <v>204011002</v>
@@ -16425,7 +16420,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="43" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A43" s="53" t="s">
         <v>1862</v>
       </c>
@@ -16499,7 +16494,7 @@
         <v>158</v>
       </c>
       <c r="AR43" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS43" s="54">
         <v>204012009</v>
@@ -16514,7 +16509,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="44" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A44" s="53" t="s">
         <v>1862</v>
       </c>
@@ -16588,7 +16583,7 @@
         <v>158</v>
       </c>
       <c r="AR44" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS44" s="54">
         <v>204013004</v>
@@ -16603,7 +16598,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="45" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A45" s="53" t="s">
         <v>1862</v>
       </c>
@@ -16684,7 +16679,7 @@
       <c r="AP45" s="53"/>
       <c r="AQ45" s="53"/>
       <c r="AR45" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS45" s="54">
         <v>67531005</v>
@@ -16696,7 +16691,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A46" s="53" t="s">
         <v>1862</v>
       </c>
@@ -16767,7 +16762,7 @@
         <v>158</v>
       </c>
       <c r="AR46" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS46" s="54">
         <v>1148758003</v>
@@ -16779,7 +16774,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A47" s="53" t="s">
         <v>1862</v>
       </c>
@@ -16851,13 +16846,13 @@
         <v>158</v>
       </c>
       <c r="AR47" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS47" s="54" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="48" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A48" s="53" t="s">
         <v>1862</v>
       </c>
@@ -16928,7 +16923,7 @@
         <v>158</v>
       </c>
       <c r="AR48" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS48" s="54">
         <v>57436000</v>
@@ -16940,7 +16935,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A49" s="53" t="s">
         <v>1862</v>
       </c>
@@ -17011,7 +17006,7 @@
         <v>158</v>
       </c>
       <c r="AR49" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS49" s="54">
         <v>35045004</v>
@@ -17023,7 +17018,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A50" s="53" t="s">
         <v>1862</v>
       </c>
@@ -17092,13 +17087,13 @@
         <v>158</v>
       </c>
       <c r="AR50" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS50" s="54" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="51" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A51" s="53" t="s">
         <v>1862</v>
       </c>
@@ -17169,7 +17164,7 @@
         <v>158</v>
       </c>
       <c r="AR51" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS51" s="54">
         <v>61959006</v>
@@ -17181,7 +17176,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A52" s="53" t="s">
         <v>1862</v>
       </c>
@@ -17252,7 +17247,7 @@
         <v>158</v>
       </c>
       <c r="AR52" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS52" s="54">
         <v>204296002</v>
@@ -17267,7 +17262,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="53" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A53" s="53" t="s">
         <v>1862</v>
       </c>
@@ -17338,7 +17333,7 @@
         <v>158</v>
       </c>
       <c r="AR53" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS53" s="54">
         <v>86299006</v>
@@ -17350,7 +17345,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A54" s="53" t="s">
         <v>1862</v>
       </c>
@@ -17421,7 +17416,7 @@
         <v>158</v>
       </c>
       <c r="AR54" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS54" s="54">
         <v>719955006</v>
@@ -17433,7 +17428,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A55" s="53" t="s">
         <v>1862</v>
       </c>
@@ -17504,7 +17499,7 @@
         <v>158</v>
       </c>
       <c r="AR55" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS55" s="54">
         <v>63042009</v>
@@ -17516,7 +17511,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A56" s="53" t="s">
         <v>1862</v>
       </c>
@@ -17587,7 +17582,7 @@
         <v>158</v>
       </c>
       <c r="AR56" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS56" s="54">
         <v>62067003</v>
@@ -17599,7 +17594,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A57" s="53" t="s">
         <v>1862</v>
       </c>
@@ -17671,7 +17666,7 @@
         <v>158</v>
       </c>
       <c r="AR57" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS57" s="54">
         <v>218728005</v>
@@ -17683,7 +17678,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A58" s="53" t="s">
         <v>1862</v>
       </c>
@@ -17755,13 +17750,13 @@
         <v>158</v>
       </c>
       <c r="AR58" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS58" s="54" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="59" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A59" s="53" t="s">
         <v>1862</v>
       </c>
@@ -17821,13 +17816,13 @@
         <v>158</v>
       </c>
       <c r="AR59" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS59" s="54" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="60" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A60" s="53" t="s">
         <v>1862</v>
       </c>
@@ -17911,7 +17906,7 @@
       <c r="AP60" s="53"/>
       <c r="AQ60" s="53"/>
       <c r="AR60" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS60" s="54">
         <v>87979003</v>
@@ -17923,7 +17918,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A61" s="53" t="s">
         <v>1862</v>
       </c>
@@ -17994,7 +17989,7 @@
         <v>158</v>
       </c>
       <c r="AR61" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS61" s="54">
         <v>448915004</v>
@@ -18006,7 +18001,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A62" s="53" t="s">
         <v>1862</v>
       </c>
@@ -18077,7 +18072,7 @@
         <v>158</v>
       </c>
       <c r="AR62" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS62" s="54">
         <v>253997002</v>
@@ -18089,7 +18084,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A63" s="53" t="s">
         <v>1862</v>
       </c>
@@ -18160,7 +18155,7 @@
         <v>158</v>
       </c>
       <c r="AR63" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS63" s="54">
         <v>63567004</v>
@@ -18172,7 +18167,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A64" s="53" t="s">
         <v>1862</v>
       </c>
@@ -18243,7 +18238,7 @@
         <v>158</v>
       </c>
       <c r="AR64" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS64" s="54">
         <v>270513005</v>
@@ -18255,7 +18250,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A65" s="53" t="s">
         <v>1862</v>
       </c>
@@ -18344,7 +18339,7 @@
       <c r="AP65" s="116"/>
       <c r="AQ65" s="116"/>
       <c r="AR65" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS65" s="114">
         <v>4602007</v>
@@ -18357,7 +18352,7 @@
       </c>
       <c r="AV65" s="113"/>
     </row>
-    <row r="66" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A66" s="53" t="s">
         <v>1862</v>
       </c>
@@ -18417,13 +18412,13 @@
         <v>158</v>
       </c>
       <c r="AR66" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS66" s="54" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="67" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A67" s="53" t="s">
         <v>1862</v>
       </c>
@@ -18494,7 +18489,7 @@
         <v>158</v>
       </c>
       <c r="AR67" s="53" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="AS67" s="54">
         <v>304068004</v>
@@ -18506,7 +18501,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="68" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A68" s="53" t="s">
         <v>1862</v>
       </c>
@@ -18578,7 +18573,7 @@
         <v>158</v>
       </c>
       <c r="AR68" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS68" s="54">
         <v>80281008</v>
@@ -18593,7 +18588,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="69" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A69" s="53" t="s">
         <v>1862</v>
       </c>
@@ -18677,7 +18672,7 @@
       <c r="AP69" s="53"/>
       <c r="AQ69" s="53"/>
       <c r="AR69" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS69" s="54">
         <v>80281008</v>
@@ -18689,7 +18684,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A70" s="53" t="s">
         <v>1862</v>
       </c>
@@ -18749,13 +18744,13 @@
         <v>158</v>
       </c>
       <c r="AR70" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS70" s="54" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="71" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A71" s="53" t="s">
         <v>1862</v>
       </c>
@@ -18830,7 +18825,7 @@
       <c r="AP71" s="53"/>
       <c r="AQ71" s="53"/>
       <c r="AR71" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS71" s="54">
         <v>66948001</v>
@@ -18842,7 +18837,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A72" s="53" t="s">
         <v>1862</v>
       </c>
@@ -18904,7 +18899,7 @@
         <v>158</v>
       </c>
       <c r="AR72" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS72" s="111" t="s">
         <v>610</v>
@@ -18916,7 +18911,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A73" s="53" t="s">
         <v>1862</v>
       </c>
@@ -18978,7 +18973,7 @@
         <v>158</v>
       </c>
       <c r="AR73" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS73" s="54">
         <v>66948001</v>
@@ -18993,7 +18988,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="74" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A74" s="53" t="s">
         <v>1862</v>
       </c>
@@ -19058,7 +19053,7 @@
         <v>158</v>
       </c>
       <c r="AR74" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS74" s="54">
         <v>66948001</v>
@@ -19070,7 +19065,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="75" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A75" s="53" t="s">
         <v>1862</v>
       </c>
@@ -19132,7 +19127,7 @@
         <v>158</v>
       </c>
       <c r="AR75" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS75" s="111" t="s">
         <v>627</v>
@@ -19144,7 +19139,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A76" s="53" t="s">
         <v>1862</v>
       </c>
@@ -19206,7 +19201,7 @@
         <v>158</v>
       </c>
       <c r="AR76" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS76" s="111" t="s">
         <v>627</v>
@@ -19221,7 +19216,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="77" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A77" s="53" t="s">
         <v>1862</v>
       </c>
@@ -19283,7 +19278,7 @@
         <v>158</v>
       </c>
       <c r="AR77" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS77" s="111" t="s">
         <v>640</v>
@@ -19295,7 +19290,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A78" s="53" t="s">
         <v>1862</v>
       </c>
@@ -19357,7 +19352,7 @@
         <v>158</v>
       </c>
       <c r="AR78" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS78" s="111" t="s">
         <v>640</v>
@@ -19372,7 +19367,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="79" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A79" s="53" t="s">
         <v>1862</v>
       </c>
@@ -19437,7 +19432,7 @@
         <v>158</v>
       </c>
       <c r="AR79" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS79" s="111" t="s">
         <v>610</v>
@@ -19446,7 +19441,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="80" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A80" s="53" t="s">
         <v>1862</v>
       </c>
@@ -19511,7 +19506,7 @@
         <v>158</v>
       </c>
       <c r="AR80" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS80" s="54">
         <v>66948001</v>
@@ -19526,7 +19521,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="81" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A81" s="53" t="s">
         <v>1862</v>
       </c>
@@ -19598,13 +19593,13 @@
         <v>158</v>
       </c>
       <c r="AR81" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS81" s="54" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="82" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A82" s="53" t="s">
         <v>1862</v>
       </c>
@@ -19675,7 +19670,7 @@
         <v>158</v>
       </c>
       <c r="AR82" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS82" s="54" t="s">
         <v>267</v>
@@ -19684,7 +19679,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="83" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A83" s="53" t="s">
         <v>1862</v>
       </c>
@@ -19755,7 +19750,7 @@
         <v>158</v>
       </c>
       <c r="AR83" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS83" s="54">
         <v>26179002</v>
@@ -19767,7 +19762,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="84" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A84" s="53" t="s">
         <v>1862</v>
       </c>
@@ -19838,7 +19833,7 @@
         <v>158</v>
       </c>
       <c r="AR84" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS84" s="54">
         <v>204659003</v>
@@ -19850,7 +19845,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="85" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A85" s="53" t="s">
         <v>1862</v>
       </c>
@@ -19921,7 +19916,7 @@
         <v>158</v>
       </c>
       <c r="AR85" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS85" s="54">
         <v>235640006</v>
@@ -19933,7 +19928,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="86" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A86" s="53" t="s">
         <v>1862</v>
       </c>
@@ -20007,7 +20002,7 @@
         <v>158</v>
       </c>
       <c r="AR86" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS86" s="54" t="s">
         <v>267</v>
@@ -20016,7 +20011,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="87" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A87" s="53" t="s">
         <v>1862</v>
       </c>
@@ -20087,7 +20082,7 @@
         <v>158</v>
       </c>
       <c r="AR87" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS87" s="54">
         <v>204711007</v>
@@ -20099,7 +20094,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A88" s="53" t="s">
         <v>1862</v>
       </c>
@@ -20170,7 +20165,7 @@
         <v>158</v>
       </c>
       <c r="AR88" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS88" s="54">
         <v>204711007</v>
@@ -20182,7 +20177,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A89" s="53" t="s">
         <v>1862</v>
       </c>
@@ -20253,7 +20248,7 @@
         <v>158</v>
       </c>
       <c r="AR89" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS89" s="54">
         <v>91890003</v>
@@ -20265,7 +20260,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="90" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A90" s="53" t="s">
         <v>1862</v>
       </c>
@@ -20336,7 +20331,7 @@
         <v>158</v>
       </c>
       <c r="AR90" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS90" s="54">
         <v>204711007</v>
@@ -20348,7 +20343,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="91" spans="1:48" s="85" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:48" s="85" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A91" s="53" t="s">
         <v>1862</v>
       </c>
@@ -20441,7 +20436,7 @@
       <c r="AP91" s="55"/>
       <c r="AQ91" s="55"/>
       <c r="AR91" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS91" s="54" t="s">
         <v>267</v>
@@ -20452,7 +20447,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="92" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A92" s="53" t="s">
         <v>1862</v>
       </c>
@@ -20523,7 +20518,7 @@
         <v>158</v>
       </c>
       <c r="AR92" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS92" s="54">
         <v>204717006</v>
@@ -20535,7 +20530,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="93" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A93" s="53" t="s">
         <v>1862</v>
       </c>
@@ -20606,7 +20601,7 @@
         <v>158</v>
       </c>
       <c r="AR93" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS93" s="54">
         <v>91375006</v>
@@ -20618,7 +20613,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="94" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A94" s="53" t="s">
         <v>1862</v>
       </c>
@@ -20689,7 +20684,7 @@
         <v>158</v>
       </c>
       <c r="AR94" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS94" s="54">
         <v>204716002</v>
@@ -20701,7 +20696,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A95" s="53" t="s">
         <v>1862</v>
       </c>
@@ -20772,7 +20767,7 @@
         <v>158</v>
       </c>
       <c r="AR95" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS95" s="54">
         <v>204712000</v>
@@ -20784,7 +20779,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A96" s="53" t="s">
         <v>1862</v>
       </c>
@@ -20855,7 +20850,7 @@
         <v>158</v>
       </c>
       <c r="AR96" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS96" s="54">
         <v>204712000</v>
@@ -20867,7 +20862,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A97" s="53" t="s">
         <v>1862</v>
       </c>
@@ -20930,13 +20925,13 @@
         <v>158</v>
       </c>
       <c r="AR97" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS97" s="54" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="98" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A98" s="53" t="s">
         <v>1862</v>
       </c>
@@ -20996,13 +20991,13 @@
         <v>158</v>
       </c>
       <c r="AR98" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS98" s="54" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="99" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A99" s="53" t="s">
         <v>1862</v>
       </c>
@@ -21073,7 +21068,7 @@
         <v>158</v>
       </c>
       <c r="AR99" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS99" s="54">
         <v>416010008</v>
@@ -21085,7 +21080,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="100" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A100" s="53" t="s">
         <v>1862</v>
       </c>
@@ -21156,7 +21151,7 @@
         <v>158</v>
       </c>
       <c r="AR100" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS100" s="54">
         <v>204888000</v>
@@ -21168,7 +21163,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="101" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A101" s="53" t="s">
         <v>1862</v>
       </c>
@@ -21239,7 +21234,7 @@
         <v>158</v>
       </c>
       <c r="AR101" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS101" s="54">
         <v>204889008</v>
@@ -21251,7 +21246,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="102" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A102" s="53" t="s">
         <v>1862</v>
       </c>
@@ -21322,7 +21317,7 @@
         <v>158</v>
       </c>
       <c r="AR102" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS102" s="54">
         <v>204890004</v>
@@ -21334,7 +21329,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="103" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A103" s="53" t="s">
         <v>1862</v>
       </c>
@@ -21405,7 +21400,7 @@
         <v>158</v>
       </c>
       <c r="AR103" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS103" s="54">
         <v>416010008</v>
@@ -21417,7 +21412,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="104" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A104" s="53" t="s">
         <v>1862</v>
       </c>
@@ -21498,7 +21493,7 @@
       <c r="AP104" s="53"/>
       <c r="AQ104" s="53"/>
       <c r="AR104" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS104" s="54">
         <v>416010008</v>
@@ -21510,7 +21505,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A105" s="53" t="s">
         <v>1862</v>
       </c>
@@ -21584,7 +21579,7 @@
         <v>158</v>
       </c>
       <c r="AR105" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS105" s="54" t="s">
         <v>267</v>
@@ -21593,7 +21588,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="106" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A106" s="53" t="s">
         <v>1862</v>
       </c>
@@ -21664,7 +21659,7 @@
         <v>158</v>
       </c>
       <c r="AR106" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS106" s="54">
         <v>204942005</v>
@@ -21679,7 +21674,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="107" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A107" s="53" t="s">
         <v>1862</v>
       </c>
@@ -21750,7 +21745,7 @@
         <v>158</v>
       </c>
       <c r="AR107" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS107" s="54">
         <v>41962002</v>
@@ -21765,7 +21760,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="108" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A108" s="53" t="s">
         <v>1862</v>
       </c>
@@ -21836,7 +21831,7 @@
         <v>158</v>
       </c>
       <c r="AR108" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS108" s="54">
         <v>32659003</v>
@@ -21851,7 +21846,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="109" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A109" s="53" t="s">
         <v>1862</v>
       </c>
@@ -21922,7 +21917,7 @@
         <v>158</v>
       </c>
       <c r="AR109" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS109" s="54">
         <v>32659003</v>
@@ -21934,7 +21929,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="110" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A110" s="53" t="s">
         <v>1862</v>
       </c>
@@ -22003,7 +21998,7 @@
         <v>158</v>
       </c>
       <c r="AR110" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS110" s="54" t="s">
         <v>267</v>
@@ -22012,7 +22007,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="111" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A111" s="53" t="s">
         <v>1862</v>
       </c>
@@ -22083,7 +22078,7 @@
         <v>158</v>
       </c>
       <c r="AR111" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS111" s="54">
         <v>1156475005</v>
@@ -22095,7 +22090,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="112" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A112" s="53" t="s">
         <v>1862</v>
       </c>
@@ -22155,7 +22150,7 @@
         <v>158</v>
       </c>
       <c r="AR112" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS112" s="54">
         <v>62588002</v>
@@ -22170,7 +22165,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="113" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A113" s="53" t="s">
         <v>1862</v>
       </c>
@@ -22241,7 +22236,7 @@
         <v>158</v>
       </c>
       <c r="AR113" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS113" s="54">
         <v>205306000</v>
@@ -22253,7 +22248,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="114" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A114" s="53" t="s">
         <v>1862</v>
       </c>
@@ -22324,7 +22319,7 @@
         <v>158</v>
       </c>
       <c r="AR114" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS114" s="54">
         <v>265798000</v>
@@ -22336,7 +22331,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A115" s="53" t="s">
         <v>1862</v>
       </c>
@@ -22401,7 +22396,7 @@
         <v>158</v>
       </c>
       <c r="AR115" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS115" s="54">
         <v>62588002</v>
@@ -22413,7 +22408,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="116" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A116" s="53" t="s">
         <v>1862</v>
       </c>
@@ -22473,7 +22468,7 @@
         <v>158</v>
       </c>
       <c r="AR116" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS116" s="54" t="s">
         <v>267</v>
@@ -22482,7 +22477,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="117" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A117" s="53" t="s">
         <v>1862</v>
       </c>
@@ -22553,7 +22548,7 @@
         <v>158</v>
       </c>
       <c r="AR117" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS117" s="54">
         <v>737217005</v>
@@ -22565,7 +22560,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="118" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A118" s="53" t="s">
         <v>1862</v>
       </c>
@@ -22636,7 +22631,7 @@
         <v>158</v>
       </c>
       <c r="AR118" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS118" s="54">
         <v>371199008</v>
@@ -22648,7 +22643,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="119" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A119" s="53" t="s">
         <v>1862</v>
       </c>
@@ -22720,7 +22715,7 @@
         <v>158</v>
       </c>
       <c r="AR119" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS119" s="54">
         <v>51635000</v>
@@ -22732,7 +22727,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="120" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A120" s="53" t="s">
         <v>1862</v>
       </c>
@@ -22803,7 +22798,7 @@
         <v>158</v>
       </c>
       <c r="AR120" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS120" s="54">
         <v>767001002</v>
@@ -22815,7 +22810,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="121" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A121" s="53" t="s">
         <v>1862</v>
       </c>
@@ -22886,7 +22881,7 @@
         <v>158</v>
       </c>
       <c r="AR121" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS121" s="54">
         <v>371197005</v>
@@ -22898,7 +22893,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="122" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A122" s="53" t="s">
         <v>1862</v>
       </c>
@@ -22970,7 +22965,7 @@
         <v>158</v>
       </c>
       <c r="AR122" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS122" s="54">
         <v>302958006</v>
@@ -22982,7 +22977,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="123" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A123" s="53" t="s">
         <v>1862</v>
       </c>
@@ -23042,7 +23037,7 @@
         <v>158</v>
       </c>
       <c r="AR123" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS123" s="54" t="s">
         <v>267</v>
@@ -23051,7 +23046,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="124" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A124" s="53" t="s">
         <v>1862</v>
       </c>
@@ -23122,7 +23117,7 @@
         <v>158</v>
       </c>
       <c r="AR124" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS124" s="54">
         <v>253926000</v>
@@ -23134,7 +23129,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="125" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A125" s="53" t="s">
         <v>1862</v>
       </c>
@@ -23205,7 +23200,7 @@
         <v>158</v>
       </c>
       <c r="AR125" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS125" s="54">
         <v>253963009</v>
@@ -23217,7 +23212,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="126" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A126" s="53" t="s">
         <v>1862</v>
       </c>
@@ -23288,7 +23283,7 @@
         <v>158</v>
       </c>
       <c r="AR126" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS126" s="54">
         <v>205211001</v>
@@ -23300,7 +23295,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="127" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A127" s="53" t="s">
         <v>1862</v>
       </c>
@@ -23360,7 +23355,7 @@
         <v>158</v>
       </c>
       <c r="AR127" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS127" s="54">
         <v>67341007</v>
@@ -23375,7 +23370,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="128" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A128" s="53" t="s">
         <v>1862</v>
       </c>
@@ -23449,7 +23444,7 @@
         <v>158</v>
       </c>
       <c r="AR128" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS128" s="54">
         <v>270963009</v>
@@ -23461,7 +23456,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="129" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A129" s="53" t="s">
         <v>1862</v>
       </c>
@@ -23532,7 +23527,7 @@
         <v>158</v>
       </c>
       <c r="AR129" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS129" s="54">
         <v>84918006</v>
@@ -23544,7 +23539,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="130" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A130" s="53" t="s">
         <v>1862</v>
       </c>
@@ -23618,7 +23613,7 @@
         <v>158</v>
       </c>
       <c r="AR130" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS130" s="54">
         <v>205227008</v>
@@ -23630,7 +23625,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="131" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A131" s="53" t="s">
         <v>1862</v>
       </c>
@@ -23701,7 +23696,7 @@
         <v>158</v>
       </c>
       <c r="AR131" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS131" s="54">
         <v>79177001</v>
@@ -23713,7 +23708,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="132" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A132" s="53" t="s">
         <v>1862</v>
       </c>
@@ -23773,7 +23768,7 @@
         <v>158</v>
       </c>
       <c r="AR132" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS132" s="54">
         <v>67341007</v>
@@ -23788,7 +23783,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="133" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A133" s="53" t="s">
         <v>1862</v>
       </c>
@@ -23862,7 +23857,7 @@
         <v>158</v>
       </c>
       <c r="AR133" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS133" s="54">
         <v>13624003</v>
@@ -23874,7 +23869,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="134" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A134" s="53" t="s">
         <v>1862</v>
       </c>
@@ -23945,7 +23940,7 @@
         <v>158</v>
       </c>
       <c r="AR134" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS134" s="54">
         <v>205358006</v>
@@ -23957,7 +23952,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="135" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A135" s="53" t="s">
         <v>1862</v>
       </c>
@@ -24017,7 +24012,7 @@
         <v>158</v>
       </c>
       <c r="AR135" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS135" s="54">
         <v>67341007</v>
@@ -24032,7 +24027,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="136" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A136" s="53" t="s">
         <v>1862</v>
       </c>
@@ -24106,7 +24101,7 @@
         <v>158</v>
       </c>
       <c r="AR136" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS136" s="54">
         <v>48301005</v>
@@ -24118,7 +24113,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="137" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A137" s="53" t="s">
         <v>1862</v>
       </c>
@@ -24189,7 +24184,7 @@
         <v>158</v>
       </c>
       <c r="AR137" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS137" s="66">
         <v>44444001</v>
@@ -24201,7 +24196,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="138" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A138" s="53" t="s">
         <v>1862</v>
       </c>
@@ -24275,7 +24270,7 @@
         <v>158</v>
       </c>
       <c r="AR138" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS138" s="54">
         <v>66345008</v>
@@ -24287,7 +24282,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="139" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A139" s="53" t="s">
         <v>1862</v>
       </c>
@@ -24358,7 +24353,7 @@
         <v>158</v>
       </c>
       <c r="AR139" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS139" s="54">
         <v>76744005</v>
@@ -24370,7 +24365,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="140" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A140" s="53" t="s">
         <v>1862</v>
       </c>
@@ -24444,13 +24439,13 @@
         <v>158</v>
       </c>
       <c r="AR140" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS140" s="54" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="141" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A141" s="53" t="s">
         <v>1862</v>
       </c>
@@ -24521,7 +24516,7 @@
         <v>158</v>
       </c>
       <c r="AR141" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS141" s="54">
         <v>18735004</v>
@@ -24533,7 +24528,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="142" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A142" s="53" t="s">
         <v>1862</v>
       </c>
@@ -24604,7 +24599,7 @@
         <v>158</v>
       </c>
       <c r="AR142" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS142" s="54">
         <v>72951007</v>
@@ -24616,7 +24611,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="143" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A143" s="53" t="s">
         <v>1862</v>
       </c>
@@ -24685,13 +24680,13 @@
         <v>158</v>
       </c>
       <c r="AR143" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS143" s="54" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="144" spans="1:48" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:48" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A144" s="53" t="s">
         <v>1862</v>
       </c>
@@ -24751,13 +24746,13 @@
         <v>158</v>
       </c>
       <c r="AR144" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS144" s="54" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="145" spans="1:47" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:47" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A145" s="53" t="s">
         <v>1862</v>
       </c>
@@ -24837,7 +24832,7 @@
         <v>158</v>
       </c>
       <c r="AR145" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS145" s="54">
         <v>41040004</v>
@@ -24849,7 +24844,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="146" spans="1:47" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:47" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A146" s="53" t="s">
         <v>1862</v>
       </c>
@@ -24929,7 +24924,7 @@
         <v>158</v>
       </c>
       <c r="AR146" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS146" s="54">
         <v>205616004</v>
@@ -24941,7 +24936,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="147" spans="1:47" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:47" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A147" s="53" t="s">
         <v>1862</v>
       </c>
@@ -25021,7 +25016,7 @@
         <v>158</v>
       </c>
       <c r="AR147" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS147" s="54">
         <v>371045000</v>
@@ -25033,7 +25028,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="148" spans="1:47" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:47" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A148" s="53" t="s">
         <v>1862</v>
       </c>
@@ -25120,7 +25115,7 @@
       <c r="AP148" s="53"/>
       <c r="AQ148" s="53"/>
       <c r="AR148" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS148" s="54">
         <v>41040004</v>
@@ -25132,7 +25127,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="149" spans="1:47" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:47" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A149" s="53" t="s">
         <v>1862</v>
       </c>
@@ -25195,13 +25190,13 @@
         <v>158</v>
       </c>
       <c r="AR149" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS149" s="54" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="150" spans="1:47" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:47" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A150" s="53" t="s">
         <v>1862</v>
       </c>
@@ -25272,7 +25267,7 @@
         <v>158</v>
       </c>
       <c r="AR150" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS150" s="54">
         <v>1857005</v>
@@ -25284,7 +25279,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="151" spans="1:47" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:47" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A151" s="53" t="s">
         <v>1862</v>
       </c>
@@ -25361,7 +25356,7 @@
         <v>158</v>
       </c>
       <c r="AR151" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS151" s="54">
         <v>35742006</v>
@@ -25373,7 +25368,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="152" spans="1:47" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:47" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A152" s="53" t="s">
         <v>1862</v>
       </c>
@@ -25444,7 +25439,7 @@
         <v>158</v>
       </c>
       <c r="AR152" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS152" s="54">
         <v>59527008</v>
@@ -25456,7 +25451,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="153" spans="1:47" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:47" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A153" s="53" t="s">
         <v>1862</v>
       </c>
@@ -25527,7 +25522,7 @@
         <v>158</v>
       </c>
       <c r="AR153" s="53" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AS153" s="54">
         <v>762725007</v>
@@ -25628,35 +25623,35 @@
       <selection pane="bottomRight" activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="51" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="69" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="51" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" style="51" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="51" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="51" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" style="51" customWidth="1"/>
-    <col min="8" max="9" width="15.5703125" style="51" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="51" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="51" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="51" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="51" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="51" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" style="51" customWidth="1"/>
-    <col min="16" max="16" width="24.85546875" style="51" customWidth="1"/>
-    <col min="17" max="23" width="20.85546875" style="53" customWidth="1"/>
-    <col min="24" max="25" width="20.85546875" style="54" customWidth="1"/>
-    <col min="26" max="39" width="20.85546875" style="53" customWidth="1"/>
-    <col min="40" max="43" width="20.85546875" style="55" customWidth="1"/>
-    <col min="44" max="44" width="20.85546875" style="54" customWidth="1"/>
-    <col min="45" max="45" width="20.85546875" style="51" customWidth="1"/>
-    <col min="46" max="47" width="20.85546875" style="53" customWidth="1"/>
-    <col min="48" max="16383" width="14.42578125" style="53"/>
-    <col min="16384" max="16384" width="14.42578125" style="53" bestFit="1"/>
+    <col min="1" max="1" width="18.109375" style="51" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="69" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="51" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" style="51" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="51" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="51" customWidth="1"/>
+    <col min="7" max="7" width="26.88671875" style="51" customWidth="1"/>
+    <col min="8" max="9" width="15.5546875" style="51" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" style="51" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="51" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="51" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" style="51" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" style="51" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" style="51" customWidth="1"/>
+    <col min="16" max="16" width="24.88671875" style="51" customWidth="1"/>
+    <col min="17" max="23" width="20.88671875" style="53" customWidth="1"/>
+    <col min="24" max="25" width="20.88671875" style="54" customWidth="1"/>
+    <col min="26" max="39" width="20.88671875" style="53" customWidth="1"/>
+    <col min="40" max="43" width="20.88671875" style="55" customWidth="1"/>
+    <col min="44" max="44" width="20.88671875" style="54" customWidth="1"/>
+    <col min="45" max="45" width="20.88671875" style="51" customWidth="1"/>
+    <col min="46" max="47" width="20.88671875" style="53" customWidth="1"/>
+    <col min="48" max="16383" width="14.44140625" style="53"/>
+    <col min="16384" max="16384" width="14.44140625" style="53" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="51" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" s="51" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>19</v>
       </c>
@@ -25799,7 +25794,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="153" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47" ht="165.6" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>1176</v>
       </c>
@@ -25857,7 +25852,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:47" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>1176</v>
       </c>
@@ -25927,7 +25922,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>1176</v>
       </c>
@@ -25989,7 +25984,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="5" spans="1:47" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:47" ht="69" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>1176</v>
       </c>
@@ -26060,7 +26055,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="6" spans="1:47" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:47" ht="69" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>1208</v>
       </c>
@@ -26116,7 +26111,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:47" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
         <v>1208</v>
       </c>
@@ -26172,7 +26167,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
         <v>1220</v>
       </c>
@@ -26229,7 +26224,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>1220</v>
       </c>
@@ -26285,7 +26280,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
         <v>1220</v>
       </c>
@@ -26343,7 +26338,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
         <v>1220</v>
       </c>
@@ -26404,7 +26399,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
         <v>1220</v>
       </c>
@@ -26463,7 +26458,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:47" s="62" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:47" s="62" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
         <v>1220</v>
       </c>
@@ -26548,7 +26543,7 @@
       </c>
       <c r="AU13" s="53"/>
     </row>
-    <row r="14" spans="1:47" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:47" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
         <v>1220</v>
       </c>
@@ -26611,7 +26606,7 @@
       <c r="AT14" s="62"/>
       <c r="AU14" s="62"/>
     </row>
-    <row r="15" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
         <v>1220</v>
       </c>
@@ -26670,7 +26665,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
         <v>1220</v>
       </c>
@@ -26729,7 +26724,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>1220</v>
       </c>
@@ -26788,7 +26783,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>1220</v>
       </c>
@@ -26843,7 +26838,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:47" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:47" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A19" s="79" t="s">
         <v>1220</v>
       </c>
@@ -26908,7 +26903,7 @@
       <c r="AT19" s="62"/>
       <c r="AU19" s="62"/>
     </row>
-    <row r="20" spans="1:47" s="62" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:47" s="62" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
         <v>1220</v>
       </c>
@@ -26995,7 +26990,7 @@
       </c>
       <c r="AU20" s="53"/>
     </row>
-    <row r="21" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>1220</v>
       </c>
@@ -27055,7 +27050,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A22" s="52" t="s">
         <v>1220</v>
       </c>
@@ -27118,7 +27113,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>1220</v>
       </c>
@@ -27184,7 +27179,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
         <v>1220</v>
       </c>
@@ -27235,7 +27230,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
         <v>1220</v>
       </c>
@@ -27290,7 +27285,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>1220</v>
       </c>
@@ -27349,7 +27344,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="s">
         <v>1220</v>
       </c>
@@ -27399,7 +27394,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
         <v>1220</v>
       </c>
@@ -27449,7 +27444,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>1220</v>
       </c>
@@ -27524,7 +27519,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
         <v>1220</v>
       </c>
@@ -27599,7 +27594,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
         <v>1220</v>
       </c>
@@ -27674,7 +27669,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
         <v>1220</v>
       </c>
@@ -27736,7 +27731,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:48" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:48" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
         <v>1220</v>
       </c>
@@ -27792,7 +27787,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:48" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:48" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
         <v>1220</v>
       </c>
@@ -27857,7 +27852,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:48" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:48" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>1220</v>
       </c>
@@ -27917,7 +27912,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:48" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:48" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
         <v>1220</v>
       </c>
@@ -27980,7 +27975,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:48" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:48" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
         <v>1220</v>
       </c>
@@ -28051,7 +28046,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:48" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:48" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>1220</v>
       </c>
@@ -28113,7 +28108,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:48" s="62" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:48" s="62" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A39" s="52" t="s">
         <v>1220</v>
       </c>
@@ -28200,7 +28195,7 @@
       </c>
       <c r="AU39" s="53"/>
     </row>
-    <row r="40" spans="1:48" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:48" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A40" s="79" t="s">
         <v>1220</v>
       </c>
@@ -28266,7 +28261,7 @@
       <c r="AU40" s="62"/>
       <c r="AV40" s="62"/>
     </row>
-    <row r="41" spans="1:48" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:48" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A41" s="52" t="s">
         <v>1220</v>
       </c>
@@ -28334,7 +28329,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:48" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:48" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A42" s="52" t="s">
         <v>1220</v>
       </c>
@@ -28402,7 +28397,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:48" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:48" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
         <v>1220</v>
       </c>
@@ -28470,7 +28465,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:48" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:48" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A44" s="52" t="s">
         <v>1220</v>
       </c>
@@ -28538,7 +28533,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:48" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:48" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A45" s="52" t="s">
         <v>1220</v>
       </c>
@@ -28606,7 +28601,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:48" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:48" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A46" s="52" t="s">
         <v>1220</v>
       </c>
@@ -28674,7 +28669,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:48" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:48" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A47" s="52" t="s">
         <v>1220</v>
       </c>
@@ -28742,7 +28737,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:48" s="62" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:48" s="62" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A48" s="52" t="s">
         <v>1220</v>
       </c>
@@ -28835,7 +28830,7 @@
       </c>
       <c r="AU48" s="53"/>
     </row>
-    <row r="49" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A49" s="79" t="s">
         <v>1220</v>
       </c>
@@ -28900,7 +28895,7 @@
       <c r="AT49" s="62"/>
       <c r="AU49" s="62"/>
     </row>
-    <row r="50" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A50" s="52" t="s">
         <v>1220</v>
       </c>
@@ -28974,7 +28969,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A51" s="52" t="s">
         <v>1220</v>
       </c>
@@ -29048,7 +29043,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A52" s="52" t="s">
         <v>1220</v>
       </c>
@@ -29122,7 +29117,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A53" s="52" t="s">
         <v>1220</v>
       </c>
@@ -29196,7 +29191,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A54" s="52" t="s">
         <v>1220</v>
       </c>
@@ -29270,7 +29265,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A55" s="52" t="s">
         <v>1220</v>
       </c>
@@ -29344,7 +29339,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A56" s="52" t="s">
         <v>1220</v>
       </c>
@@ -29412,7 +29407,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A57" s="52" t="s">
         <v>1220</v>
       </c>
@@ -29486,7 +29481,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A58" s="52" t="s">
         <v>1220</v>
       </c>
@@ -29560,7 +29555,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A59" s="52" t="s">
         <v>1220</v>
       </c>
@@ -29634,7 +29629,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A60" s="52" t="s">
         <v>1220</v>
       </c>
@@ -29708,7 +29703,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A61" s="52" t="s">
         <v>1220</v>
       </c>
@@ -29761,7 +29756,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="62" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A62" s="52" t="s">
         <v>1220</v>
       </c>
@@ -29814,7 +29809,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="63" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A63" s="52" t="s">
         <v>1220</v>
       </c>
@@ -29867,7 +29862,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="64" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A64" s="79" t="s">
         <v>1220</v>
       </c>
@@ -29929,7 +29924,7 @@
       <c r="AS64" s="63"/>
       <c r="AT64" s="62"/>
     </row>
-    <row r="65" spans="1:46" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:46" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A65" s="52" t="s">
         <v>1220</v>
       </c>
@@ -30003,7 +29998,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:46" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:46" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A66" s="52" t="s">
         <v>1220</v>
       </c>
@@ -30077,7 +30072,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:46" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:46" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A67" s="52" t="s">
         <v>1220</v>
       </c>
@@ -30151,7 +30146,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="68" spans="1:46" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:46" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A68" s="52" t="s">
         <v>1220</v>
       </c>
@@ -30219,7 +30214,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="69" spans="1:46" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:46" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A69" s="52" t="s">
         <v>1220</v>
       </c>
@@ -30293,7 +30288,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="1:46" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:46" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A70" s="52" t="s">
         <v>1220</v>
       </c>
@@ -30367,7 +30362,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:46" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:46" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A71" s="52" t="s">
         <v>1220</v>
       </c>
@@ -30441,7 +30436,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="1:46" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:46" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A72" s="52" t="s">
         <v>1220</v>
       </c>
@@ -30509,7 +30504,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:46" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:46" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A73" s="52" t="s">
         <v>1220</v>
       </c>
@@ -30583,7 +30578,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="74" spans="1:46" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:46" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A74" s="52" t="s">
         <v>1220</v>
       </c>
@@ -30657,7 +30652,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="75" spans="1:46" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:46" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A75" s="52" t="s">
         <v>1220</v>
       </c>
@@ -30731,7 +30726,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="76" spans="1:46" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:46" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A76" s="52" t="s">
         <v>1220</v>
       </c>
@@ -30805,7 +30800,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="77" spans="1:46" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:46" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A77" s="52" t="s">
         <v>1220</v>
       </c>
@@ -30858,7 +30853,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="78" spans="1:46" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:46" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A78" s="52" t="s">
         <v>1220</v>
       </c>
@@ -30911,7 +30906,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="79" spans="1:46" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:46" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A79" s="52" t="s">
         <v>1220</v>
       </c>
@@ -30964,7 +30959,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="80" spans="1:46" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:46" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A80" s="52" t="s">
         <v>1220</v>
       </c>
@@ -31022,7 +31017,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="81" spans="1:46" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:46" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A81" s="52" t="s">
         <v>1220</v>
       </c>
@@ -31078,7 +31073,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:46" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:46" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A82" s="52" t="s">
         <v>1220</v>
       </c>
@@ -31134,7 +31129,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="83" spans="1:46" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:46" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A83" s="52" t="s">
         <v>1220</v>
       </c>
@@ -31198,7 +31193,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="84" spans="1:46" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:46" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A84" s="52" t="s">
         <v>1220</v>
       </c>
@@ -31257,7 +31252,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="85" spans="1:46" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:46" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A85" s="52" t="s">
         <v>1220</v>
       </c>
@@ -31320,7 +31315,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="86" spans="1:46" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:46" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A86" s="52" t="s">
         <v>1220</v>
       </c>
@@ -31377,7 +31372,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="1:46" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:46" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A87" s="52" t="s">
         <v>1220</v>
       </c>
@@ -31434,7 +31429,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:46" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:46" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A88" s="52" t="s">
         <v>1220</v>
       </c>
@@ -31493,7 +31488,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="1:46" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:46" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A89" s="52" t="s">
         <v>1220</v>
       </c>
@@ -31552,7 +31547,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="90" spans="1:46" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:46" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A90" s="52" t="s">
         <v>1220</v>
       </c>
@@ -31611,7 +31606,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="1:46" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:46" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A91" s="52" t="s">
         <v>1220</v>
       </c>
@@ -31673,7 +31668,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:46" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:46" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A92" s="52" t="s">
         <v>1220</v>
       </c>
@@ -31735,7 +31730,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:46" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:46" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A93" s="52" t="s">
         <v>1220</v>
       </c>
@@ -31797,7 +31792,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="1:46" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:46" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A94" s="52" t="s">
         <v>1220</v>
       </c>
@@ -31859,7 +31854,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:46" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:46" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A95" s="52" t="s">
         <v>1220</v>
       </c>
@@ -31917,7 +31912,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:46" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:46" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A96" s="52" t="s">
         <v>1220</v>
       </c>
@@ -31973,7 +31968,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A97" s="52" t="s">
         <v>1220</v>
       </c>
@@ -32029,7 +32024,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A98" s="52" t="s">
         <v>1220</v>
       </c>
@@ -32092,7 +32087,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="99" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A99" s="52" t="s">
         <v>1220</v>
       </c>
@@ -32147,7 +32142,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="1:47" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:47" ht="138" x14ac:dyDescent="0.25">
       <c r="A100" s="52" t="s">
         <v>1220</v>
       </c>
@@ -32210,7 +32205,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="101" spans="1:47" s="62" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:47" s="62" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A101" s="52" t="s">
         <v>1220</v>
       </c>
@@ -32297,7 +32292,7 @@
       </c>
       <c r="AU101" s="53"/>
     </row>
-    <row r="102" spans="1:47" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A102" s="52" t="s">
         <v>1220</v>
       </c>
@@ -32356,7 +32351,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="103" spans="1:47" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:47" ht="69" x14ac:dyDescent="0.25">
       <c r="A103" s="52" t="s">
         <v>1791</v>
       </c>
@@ -32412,7 +32407,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="104" spans="1:47" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:47" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A104" s="52" t="s">
         <v>1791</v>
       </c>
@@ -32468,7 +32463,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="1:47" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:47" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A105" s="52" t="s">
         <v>1799</v>
       </c>
@@ -32530,7 +32525,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="106" spans="1:47" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:47" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A106" s="52" t="s">
         <v>1799</v>
       </c>
@@ -32735,33 +32730,33 @@
       <selection pane="bottomRight" activeCell="AF7" sqref="AF7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" style="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" customWidth="1"/>
-    <col min="11" max="12" width="17.5703125" style="1" customWidth="1"/>
-    <col min="13" max="14" width="18.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="23.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="25.42578125" style="1" customWidth="1"/>
-    <col min="17" max="23" width="20.85546875" style="2" customWidth="1"/>
-    <col min="24" max="25" width="20.85546875" style="3" customWidth="1"/>
-    <col min="26" max="39" width="20.85546875" style="2" customWidth="1"/>
-    <col min="40" max="43" width="20.85546875" style="44" customWidth="1"/>
-    <col min="44" max="44" width="20.85546875" style="2" customWidth="1"/>
-    <col min="45" max="45" width="20.85546875" style="4" customWidth="1"/>
-    <col min="46" max="47" width="20.85546875" style="2" customWidth="1"/>
-    <col min="48" max="16384" width="14.42578125" style="2"/>
+    <col min="11" max="12" width="17.5546875" style="1" customWidth="1"/>
+    <col min="13" max="14" width="18.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.44140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="25.44140625" style="1" customWidth="1"/>
+    <col min="17" max="23" width="20.88671875" style="2" customWidth="1"/>
+    <col min="24" max="25" width="20.88671875" style="3" customWidth="1"/>
+    <col min="26" max="39" width="20.88671875" style="2" customWidth="1"/>
+    <col min="40" max="43" width="20.88671875" style="44" customWidth="1"/>
+    <col min="44" max="44" width="20.88671875" style="2" customWidth="1"/>
+    <col min="45" max="45" width="20.88671875" style="4" customWidth="1"/>
+    <col min="46" max="47" width="20.88671875" style="2" customWidth="1"/>
+    <col min="48" max="16384" width="14.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="1" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>19</v>
       </c>
@@ -32904,7 +32899,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>1866</v>
       </c>
@@ -32979,7 +32974,7 @@
       <c r="AT2" s="53"/>
       <c r="AU2" s="53"/>
     </row>
-    <row r="3" spans="1:47" ht="229.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" ht="248.4" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>1817</v>
       </c>
@@ -33054,7 +33049,7 @@
       <c r="AT3" s="53"/>
       <c r="AU3" s="53"/>
     </row>
-    <row r="4" spans="1:47" ht="229.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:47" ht="248.4" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>1820</v>
       </c>
@@ -33129,7 +33124,7 @@
       <c r="AT4" s="53"/>
       <c r="AU4" s="53"/>
     </row>
-    <row r="5" spans="1:47" ht="242.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:47" ht="248.4" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>1867</v>
       </c>
@@ -33289,47 +33284,47 @@
       <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="51" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="69" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="51" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" style="51" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="51" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="51" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="51" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="51" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="51" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" style="51" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="69" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="51" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" style="51" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="51" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="51" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="51" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="51" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" style="51" customWidth="1"/>
     <col min="10" max="10" width="10" style="51" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" style="51" customWidth="1"/>
-    <col min="12" max="13" width="18.140625" style="51" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" style="51" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" style="51" customWidth="1"/>
+    <col min="12" max="13" width="18.109375" style="51" customWidth="1"/>
+    <col min="14" max="14" width="18.88671875" style="51" customWidth="1"/>
     <col min="15" max="15" width="21" style="51" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="53" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" style="53" customWidth="1"/>
     <col min="17" max="17" width="18" style="53" customWidth="1"/>
-    <col min="18" max="18" width="17.85546875" style="53" customWidth="1"/>
+    <col min="18" max="18" width="17.88671875" style="53" customWidth="1"/>
     <col min="19" max="20" width="12" style="53" customWidth="1"/>
-    <col min="21" max="22" width="16.5703125" style="53" customWidth="1"/>
-    <col min="23" max="23" width="18.42578125" style="54" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="16.5546875" style="53" customWidth="1"/>
+    <col min="23" max="23" width="18.44140625" style="54" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="15" style="54" customWidth="1"/>
-    <col min="25" max="25" width="17.42578125" style="53" customWidth="1"/>
+    <col min="25" max="25" width="17.44140625" style="53" customWidth="1"/>
     <col min="26" max="26" width="20" style="53" customWidth="1"/>
-    <col min="27" max="27" width="19.42578125" style="53" customWidth="1"/>
+    <col min="27" max="27" width="19.44140625" style="53" customWidth="1"/>
     <col min="28" max="28" width="20" style="53" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15" style="53" customWidth="1"/>
-    <col min="30" max="31" width="18.5703125" style="53" customWidth="1"/>
-    <col min="32" max="32" width="19.85546875" style="53" customWidth="1"/>
-    <col min="33" max="33" width="19.42578125" style="53" customWidth="1"/>
-    <col min="34" max="36" width="13.140625" style="53" customWidth="1"/>
-    <col min="37" max="37" width="14.42578125" style="53" customWidth="1"/>
-    <col min="38" max="38" width="14.5703125" style="53" customWidth="1"/>
-    <col min="39" max="42" width="14.42578125" style="55" customWidth="1"/>
-    <col min="43" max="43" width="14.42578125" style="53"/>
-    <col min="44" max="44" width="14.42578125" style="51"/>
-    <col min="45" max="16384" width="14.42578125" style="53"/>
+    <col min="30" max="31" width="18.5546875" style="53" customWidth="1"/>
+    <col min="32" max="32" width="19.88671875" style="53" customWidth="1"/>
+    <col min="33" max="33" width="19.44140625" style="53" customWidth="1"/>
+    <col min="34" max="36" width="13.109375" style="53" customWidth="1"/>
+    <col min="37" max="37" width="14.44140625" style="53" customWidth="1"/>
+    <col min="38" max="38" width="14.5546875" style="53" customWidth="1"/>
+    <col min="39" max="42" width="14.44140625" style="55" customWidth="1"/>
+    <col min="43" max="43" width="14.44140625" style="53"/>
+    <col min="44" max="44" width="14.44140625" style="51"/>
+    <col min="45" max="16384" width="14.44140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="51" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" s="51" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>19</v>
       </c>
@@ -33472,7 +33467,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>1868</v>
       </c>
@@ -33519,7 +33514,7 @@
       </c>
       <c r="AS2" s="51"/>
     </row>
-    <row r="3" spans="1:47" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>1869</v>
       </c>
@@ -33566,7 +33561,7 @@
       </c>
       <c r="AS3" s="51"/>
     </row>
-    <row r="4" spans="1:47" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:47" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>1869</v>
       </c>
@@ -33613,7 +33608,7 @@
       </c>
       <c r="AS4" s="51"/>
     </row>
-    <row r="5" spans="1:47" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:47" ht="69" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>1833</v>
       </c>
@@ -33743,22 +33738,22 @@
       <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="91.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="91.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>1836</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:3" s="28" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="28" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>1837</v>
       </c>
@@ -33769,7 +33764,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -33780,7 +33775,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>A3+1</f>
         <v>2</v>
@@ -33792,7 +33787,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -33803,7 +33798,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -33814,7 +33809,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -33825,7 +33820,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -33836,7 +33831,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -33847,17 +33842,17 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="47"/>
       <c r="C10" s="48"/>
     </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="120" t="s">
         <v>1853</v>
       </c>
       <c r="C11" s="37"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="37"/>
       <c r="C12" s="48"/>
     </row>
@@ -33865,345 +33860,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="93" orientation="landscape" horizontalDpi="4294967294" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="51983ca6-de84-41fa-9a65-1d08ee1009bc">
-      <UserInfo>
-        <DisplayName>boris.groisman@gmail.com</DisplayName>
-        <AccountId>39</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Limited Access System Group For Web dcec2ec8-41a3-4e60-a096-927e8d25b587</DisplayName>
-        <AccountId>31</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Birth defects surveillance working group Members</DisplayName>
-        <AccountId>7</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>walani@post.harvard.edu</DisplayName>
-        <AccountId>28</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>ydahmane</DisplayName>
-        <AccountId>13</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>DAVIS, George</DisplayName>
-        <AccountId>12</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>CORMAN, Constantin</DisplayName>
-        <AccountId>42</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="73389989-ac93-4f39-a9f3-2949bbf25fcc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="51983ca6-de84-41fa-9a65-1d08ee1009bc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A6DDC313EDC9A43B330D8B6305883A5" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a5b0342cd22268e5e5d3683a3cff816e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="73389989-ac93-4f39-a9f3-2949bbf25fcc" xmlns:ns3="51983ca6-de84-41fa-9a65-1d08ee1009bc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c638d06e48d95e9efa3bb75773f50cd7" ns2:_="" ns3:_="">
-    <xsd:import namespace="73389989-ac93-4f39-a9f3-2949bbf25fcc"/>
-    <xsd:import namespace="51983ca6-de84-41fa-9a65-1d08ee1009bc"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="73389989-ac93-4f39-a9f3-2949bbf25fcc" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="aa4eac88-8ae6-4a96-90c7-97bc93c844ef" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="22" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="24" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="25" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="51983ca6-de84-41fa-9a65-1d08ee1009bc" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{4e25bbd8-810c-4ffd-a120-2ac751b23961}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="51983ca6-de84-41fa-9a65-1d08ee1009bc">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{117D62C5-B693-4014-B24B-9D6D08B6151A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="dcec2ec8-41a3-4e60-a096-927e8d25b587"/>
-    <ds:schemaRef ds:uri="3f052330-ac71-4f18-b028-73a9a7b07a91"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4746D13B-077D-4C7C-91E4-6BCBB01D868A}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B327EE6A-07A4-4982-8BC0-63F905116036}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>